--- a/Cellular Network/data/bitrate.xlsx
+++ b/Cellular Network/data/bitrate.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\After Kuliah\applied-fund-research\Cellular Network\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1CCE3-1832-4216-827C-AF8CF42039BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAF6F4-CD72-4384-9074-FDC7B97D0BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="udp_ovr" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="udpj_ovr5" localSheetId="2">udp_ovr!$A$1:$M$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,13 +29,217 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{8DE2091F-D6A2-4622-9030-EA5580CBA585}" name="udpj_ovr5" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\Kuliah\TA New lagi\system-repo\test\getdata\res\udpj_ovr5.csv" space="1" semicolon="1" consecutive="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="62">
   <si>
     <t>tcp</t>
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>5]</t>
+  </si>
+  <si>
+    <t>0.00-10.26</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>MBytes</t>
+  </si>
+  <si>
+    <t>Mbits/sec</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>72946/92648</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>0.00-10.24</t>
+  </si>
+  <si>
+    <t>72210/92705</t>
+  </si>
+  <si>
+    <t>0.00-10.18</t>
+  </si>
+  <si>
+    <t>72717/92604</t>
+  </si>
+  <si>
+    <t>73662/92483</t>
+  </si>
+  <si>
+    <t>0.00-10.22</t>
+  </si>
+  <si>
+    <t>73401/92709</t>
+  </si>
+  <si>
+    <t>0.00-10.35</t>
+  </si>
+  <si>
+    <t>73234/92710</t>
+  </si>
+  <si>
+    <t>0.00-10.19</t>
+  </si>
+  <si>
+    <t>73732/92576</t>
+  </si>
+  <si>
+    <t>0.00-10.39</t>
+  </si>
+  <si>
+    <t>74190/92710</t>
+  </si>
+  <si>
+    <t>0.00-10.20</t>
+  </si>
+  <si>
+    <t>73310/92710</t>
+  </si>
+  <si>
+    <t>74146/92494</t>
+  </si>
+  <si>
+    <t>0.00-10.38</t>
+  </si>
+  <si>
+    <t>73300/92700</t>
+  </si>
+  <si>
+    <t>0.00-10.34</t>
+  </si>
+  <si>
+    <t>73839/92641</t>
+  </si>
+  <si>
+    <t>0.00-10.37</t>
+  </si>
+  <si>
+    <t>73463/92709</t>
+  </si>
+  <si>
+    <t>0.00-10.33</t>
+  </si>
+  <si>
+    <t>74074/92705</t>
+  </si>
+  <si>
+    <t>0.00-10.28</t>
+  </si>
+  <si>
+    <t>72997/92707</t>
+  </si>
+  <si>
+    <t>0.00-10.31</t>
+  </si>
+  <si>
+    <t>73232/92707</t>
+  </si>
+  <si>
+    <t>72958/92504</t>
+  </si>
+  <si>
+    <t>73460/92596</t>
+  </si>
+  <si>
+    <t>73680/92594</t>
+  </si>
+  <si>
+    <t>73444/92644</t>
+  </si>
+  <si>
+    <t>0.00-10.25</t>
+  </si>
+  <si>
+    <t>73704/92431</t>
+  </si>
+  <si>
+    <t>0.00-10.21</t>
+  </si>
+  <si>
+    <t>73946/92493</t>
+  </si>
+  <si>
+    <t>73675/92715</t>
+  </si>
+  <si>
+    <t>73790/92716</t>
+  </si>
+  <si>
+    <t>0.00-10.23</t>
+  </si>
+  <si>
+    <t>74301/92687</t>
+  </si>
+  <si>
+    <t>74271/92700</t>
+  </si>
+  <si>
+    <t>0.00-10.36</t>
+  </si>
+  <si>
+    <t>73343/92716</t>
+  </si>
+  <si>
+    <t>73403/92717</t>
+  </si>
+  <si>
+    <t>74007/92716</t>
+  </si>
+  <si>
+    <t>0.00-10.29</t>
+  </si>
+  <si>
+    <t>74299/92700</t>
+  </si>
+  <si>
+    <t>jitter</t>
+  </si>
+  <si>
+    <t>avgj</t>
+  </si>
+  <si>
+    <t>avgt</t>
   </si>
 </sst>
 </file>
@@ -66,8 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,7 +712,421 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jitter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CD9-437F-944B-05ED749B0A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1825710015"/>
+        <c:axId val="1825711455"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1825710015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1825711455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1825711455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1825710015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -1018,20 +1642,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="296">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1056,7 +2169,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62872D7-FB76-2A8B-107B-CC6863E036F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="udpj_ovr5" connectionId="1" xr16:uid="{59269475-8467-443B-AF31-75C072E737FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,23 +2475,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.3</v>
       </c>
@@ -1346,129 +2505,1602 @@
         <f>AVERAGE(A2:A26)</f>
         <v>21.872000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(C2:C30)</f>
+        <v>0.65004000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1.2470000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22.1</v>
+      </c>
+      <c r="C26">
+        <v>0.46899999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4974A259-4BC8-408F-8266-D6DC9CF7D2F2}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>36.1</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(A2:A21)</f>
+        <v>22.815000000000001</v>
+      </c>
+      <c r="C2">
+        <f>MAX(A2:A21)</f>
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CD2B15-4EF3-4680-912E-93B04EB049EE}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>25.3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1">
+        <v>20.7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>26.3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>21.6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>3.4689999999999999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>25.6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>21.1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>24.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0.62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>24.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>0.999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>20.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>24.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>1.056</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>23.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>19.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>24.9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>20.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>23.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>1.008</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>24.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>20.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>24.2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0.67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>24.7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>25.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>20.7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>25.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>20.7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>24.6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>20.3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>24.3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>24.7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>20.3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>24.1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>19.7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>23.8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>24.5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>24.3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>19.7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>23.6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>23.7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>24.9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>20.2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>24.8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-0.79</v>
+      </c>
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>24.1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>23.7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>19.3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="M30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>